--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCE8E8B-89F5-4BB1-853A-E839D0643FF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D17CD3-89DE-49B4-99D9-82D146681903}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -37,13 +37,7 @@
     <t>Incident</t>
   </si>
   <si>
-    <t>Problem</t>
-  </si>
-  <si>
     <t>2mzLWfzHoR5N</t>
-  </si>
-  <si>
-    <t>admin1</t>
   </si>
 </sst>
 </file>
@@ -386,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,24 +406,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
